--- a/medicine/Handicap/Ce_gamin,_là/Ce_gamin,_là.xlsx
+++ b/medicine/Handicap/Ce_gamin,_là/Ce_gamin,_là.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ce_gamin,_l%C3%A0</t>
+          <t>Ce_gamin,_là</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce gamin, là est un documentaire français réalisé par Renaud Victor, sorti en 1976.
-Co-produit par Les Films du Carrosse (François Truffaut) avec l'aide de plusieurs producteurs français (Claude Berri, Yves Robert et Danièle Delorme, etc.), il devait initialement s'appeler Pierres d'ailleurs, puis Un radeau dans la montagne[1].
+Co-produit par Les Films du Carrosse (François Truffaut) avec l'aide de plusieurs producteurs français (Claude Berri, Yves Robert et Danièle Delorme, etc.), il devait initialement s'appeler Pierres d'ailleurs, puis Un radeau dans la montagne.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ce_gamin,_l%C3%A0</t>
+          <t>Ce_gamin,_là</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un groupe d'éducateurs animé par Fernand Deligny s'emploie à créer un contact avec des enfants autistes dans un hameau des Cévennes.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ce_gamin,_l%C3%A0</t>
+          <t>Ce_gamin,_là</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Ce gamin, là
 Réalisateur : Renaud Victor
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ce_gamin,_l%C3%A0</t>
+          <t>Ce_gamin,_là</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Fernand Deligny : lui-même
 Janmari : le gamin</t>
